--- a/Data/Simul/Test3/Calib_9.xlsx
+++ b/Data/Simul/Test3/Calib_9.xlsx
@@ -532,88 +532,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1407495020632299</v>
+        <v>0.1425228607252335</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1435576950625593</v>
+        <v>0.1406670605134474</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1437655923439867</v>
+        <v>0.1432104812184859</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1685820098247993</v>
+        <v>0.140834062932993</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1957718578398426</v>
+        <v>0.1440729948551331</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2014992361854857</v>
+        <v>0.1359486592617677</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1984657809816665</v>
+        <v>0.1321615344519199</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1897520901935345</v>
+        <v>0.1529658434608726</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1933386683043</v>
+        <v>0.1879744044191141</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1906625820362967</v>
+        <v>0.1586248140353212</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1781138090461249</v>
+        <v>0.1690709754960779</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1892904637544753</v>
+        <v>0.1449019954433806</v>
       </c>
       <c r="N2" t="n">
-        <v>0.214151563674194</v>
+        <v>0.168673532668067</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2159722866075156</v>
+        <v>0.1911405442213708</v>
       </c>
       <c r="P2" t="n">
-        <v>0.142151443216941</v>
+        <v>0.2260152495508487</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2011954181255164</v>
+        <v>0.1813179169029431</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2254384718551256</v>
+        <v>0.1122546212343832</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2130866136123542</v>
+        <v>0.06814607217644647</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3106181401128885</v>
+        <v>0.04871177202362622</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2904932087151763</v>
+        <v>0.0998008601616847</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3731479124696254</v>
+        <v>0.1323318842726098</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5601303201798711</v>
+        <v>0.2278647841461705</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6315712256476054</v>
+        <v>0.4738970625491535</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7342315164936578</v>
+        <v>0.6104959883078902</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7469049189928537</v>
+        <v>0.5774509205706715</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7795441844567159</v>
+        <v>0.6406209535662282</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7468427207750086</v>
+        <v>0.5904970801038368</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6598189419889329</v>
+        <v>0.4345797348282881</v>
       </c>
     </row>
     <row r="3">
@@ -623,88 +623,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1494235391239664</v>
+        <v>0.144414961136954</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1410068960444937</v>
+        <v>0.150791684798254</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1418438844809267</v>
+        <v>0.1437649001712619</v>
       </c>
       <c r="E3" t="n">
-        <v>0.103026300761567</v>
+        <v>0.1512955068533226</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05464242649090884</v>
+        <v>0.1410640969618854</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03913648905139851</v>
+        <v>0.1581699759331429</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05671625267008967</v>
+        <v>0.1676970753498725</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08380906172069424</v>
+        <v>0.137441929331316</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08859426082380885</v>
+        <v>0.07733390273314357</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05190798788703108</v>
+        <v>0.1375848546183076</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03357907127540811</v>
+        <v>0.1647572625850935</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06189445343602346</v>
+        <v>0.02220012041540032</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06394420299204566</v>
+        <v>0.07726370871699074</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02191956078598385</v>
+        <v>0.05894357702019154</v>
       </c>
       <c r="P3" t="n">
-        <v>0.008700167330311849</v>
+        <v>0.06697389903500228</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02455198041437926</v>
+        <v>0.01316093691215944</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05464783375707627</v>
+        <v>0.002249444309185233</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1182564006037271</v>
+        <v>0.000412739514407298</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06494028734255514</v>
+        <v>0.0001373439221479947</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00588542735562161</v>
+        <v>0.000279238640881378</v>
       </c>
       <c r="V3" t="n">
-        <v>0.007373106201846194</v>
+        <v>0.000109256768093851</v>
       </c>
       <c r="W3" t="n">
-        <v>0.006822346315328704</v>
+        <v>0.000121233759669197</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001810019389734176</v>
+        <v>0.0002899066723930402</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.002620871006127929</v>
+        <v>0.0002308453031606862</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.006411080345887606</v>
+        <v>5.762130994426172e-05</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0009931642684808187</v>
+        <v>1.103319089558386e-05</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0001161829557151056</v>
+        <v>1.959120286137219e-06</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.246908818045542e-05</v>
+        <v>1.525630795764014e-08</v>
       </c>
     </row>
     <row r="4">
@@ -714,88 +714,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1494235493712611</v>
+        <v>0.1444149630494145</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1410068929155071</v>
+        <v>0.1507916959823613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1418438812991811</v>
+        <v>0.143764899656521</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1030269113992171</v>
+        <v>0.151295517772355</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0546433338597394</v>
+        <v>0.1410640923361689</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03913729037574625</v>
+        <v>0.1581700270300655</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05671726039301372</v>
+        <v>0.1676973526522337</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08381036621815061</v>
+        <v>0.1374426772933167</v>
       </c>
       <c r="J4" t="n">
-        <v>0.079786646059317</v>
+        <v>0.07733491479602364</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09821947898213075</v>
+        <v>0.1375861056947014</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1102726161376255</v>
+        <v>0.111418260174793</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0936164909688753</v>
+        <v>0.2170773493866835</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0842812525013148</v>
+        <v>0.1681079461870142</v>
       </c>
       <c r="O4" t="n">
-        <v>0.108736277674022</v>
+        <v>0.1667642161991393</v>
       </c>
       <c r="P4" t="n">
-        <v>0.12006952106706</v>
+        <v>0.137936995076589</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1056146975524868</v>
+        <v>0.1991302486656072</v>
       </c>
       <c r="R4" t="n">
-        <v>0.08507575322812107</v>
+        <v>0.2279117903036695</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05039047996987447</v>
+        <v>0.2349053097485401</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04860821176318682</v>
+        <v>0.2338053736474047</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09871460550659854</v>
+        <v>0.2450705772487657</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06677992615560113</v>
+        <v>0.203553891842414</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01548024447594452</v>
+        <v>0.1334700866588365</v>
       </c>
       <c r="X4" t="n">
-        <v>0.007220863046896802</v>
+        <v>0.0324477440567958</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001438112858569232</v>
+        <v>0.005731866325381731</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0004569054992263689</v>
+        <v>0.002583202657588422</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.22706638561781e-05</v>
+        <v>0.0004101186880226488</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.788538938841235e-06</v>
+        <v>2.267267397250692e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.091107964395247e-07</v>
+        <v>5.841033476089897e-06</v>
       </c>
     </row>
     <row r="5">
@@ -805,88 +805,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1494274069555787</v>
+        <v>0.1444156829411668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1410057149989314</v>
+        <v>0.1507959060971841</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1418426834036497</v>
+        <v>0.1437647057015706</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1030153242768643</v>
+        <v>0.151299627992457</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05462698733202147</v>
+        <v>0.1410623508306026</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03912293540674683</v>
+        <v>0.1581670892633271</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05669914102945231</v>
+        <v>0.1676903355326883</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08378681776234817</v>
+        <v>0.1374278224845634</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08550972888191612</v>
+        <v>0.07731622098518975</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08380860691550816</v>
+        <v>0.1375624521263219</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07791988908335848</v>
+        <v>0.1474697378835876</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08333375898524856</v>
+        <v>0.1235133527319914</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0947051727795714</v>
+        <v>0.1454860806500273</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09625812395178283</v>
+        <v>0.1649780272670586</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0639158379886023</v>
+        <v>0.1963421482644593</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08953969591511771</v>
+        <v>0.159708998024176</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09960398977366154</v>
+        <v>0.1002515460553123</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09319275881523946</v>
+        <v>0.06162348266953228</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1325926691159441</v>
+        <v>0.04439705346085912</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1594593445478784</v>
+        <v>0.09003022955165332</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1879413154438764</v>
+        <v>0.1181196652045216</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2491430250636115</v>
+        <v>0.1825488482338276</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2648247284748232</v>
+        <v>0.2974448186283221</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2212232697869578</v>
+        <v>0.3186990910129863</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1854786293612674</v>
+        <v>0.3562440518863462</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2089637712197327</v>
+        <v>0.3481402420887133</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2517096426448583</v>
+        <v>0.4087630691203246</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3398903087335631</v>
+        <v>0.5652183857331636</v>
       </c>
     </row>
     <row r="6">
@@ -896,88 +896,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1330509811295149</v>
+        <v>0.1403523198735531</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1455112308467617</v>
+        <v>0.1306187467039117</v>
       </c>
       <c r="D6" t="n">
-        <v>0.143756567845974</v>
+        <v>0.1408128593823257</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1768814152606747</v>
+        <v>0.1295110289035467</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2216834459085054</v>
+        <v>0.1448565562621904</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2388519537477718</v>
+        <v>0.1275815145829851</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2160421032772545</v>
+        <v>0.1172872953697316</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1848167534191273</v>
+        <v>0.1417462860188536</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1744350262255055</v>
+        <v>0.1962491614004215</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2201362225824521</v>
+        <v>0.1362291781618067</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2527552005508689</v>
+        <v>0.1061025416295173</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2092715465964352</v>
+        <v>0.2262559436458696</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1823550563234764</v>
+        <v>0.1677104686988217</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2413958294571124</v>
+        <v>0.1616290895077331</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3215453468318377</v>
+        <v>0.1264890485558634</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2489309628731019</v>
+        <v>0.2095924037631791</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1833137446895452</v>
+        <v>0.2796818777482796</v>
       </c>
       <c r="S6" t="n">
-        <v>0.09567789726348742</v>
+        <v>0.3239049217110486</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1094449681645555</v>
+        <v>0.3452609854769968</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2146234257804154</v>
+        <v>0.2843645412858852</v>
       </c>
       <c r="V6" t="n">
-        <v>0.178872990607341</v>
+        <v>0.2943757185737303</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08580511390836849</v>
+        <v>0.2706393186140448</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05707863283996416</v>
+        <v>0.1366000462579103</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01173584890999136</v>
+        <v>0.04991806868260012</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.003834246344493415</v>
+        <v>0.05456593283248341</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0004669139728383904</v>
+        <v>0.009177549164118445</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.642204309533361e-05</v>
+        <v>0.0005808035029889795</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.124764558397508e-06</v>
+        <v>0.0001643068104456418</v>
       </c>
     </row>
     <row r="7">
@@ -987,88 +987,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.144493746115304</v>
+        <v>0.143408062728885</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1424860789529989</v>
+        <v>0.1451974862483847</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1431422736862201</v>
+        <v>0.1437033039507886</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1687391419418205</v>
+        <v>0.1456497679146481</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1975720455986929</v>
+        <v>0.1430116203510456</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2043504459403557</v>
+        <v>0.1341000515161626</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1996378901105588</v>
+        <v>0.1297145846150459</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1888723123418899</v>
+        <v>0.1508262600365518</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2034749789321322</v>
+        <v>0.1876208128342822</v>
       </c>
       <c r="K7" t="n">
-        <v>0.134983103017577</v>
+        <v>0.1554416349652157</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09484560913532622</v>
+        <v>0.1941974164608103</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1531469984125827</v>
+        <v>0.03937975662255062</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1776217279103841</v>
+        <v>0.1042149838629971</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07417174906304579</v>
+        <v>0.09376074719950724</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03085145038410642</v>
+        <v>0.1183317731878798</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08357687707287356</v>
+        <v>0.02914267267653324</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1679709365217122</v>
+        <v>0.006052342650018177</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3316286976616561</v>
+        <v>0.00133408026417288</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2337368850003673</v>
+        <v>0.0005005654666059592</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02684293295905183</v>
+        <v>0.001148390622525552</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03781825907037283</v>
+        <v>0.0005971445562814683</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0391520697581303</v>
+        <v>0.0008105061425869996</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01457272499859833</v>
+        <v>0.002163028403377269</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02392965125601659</v>
+        <v>0.002047519740024141</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0553081104878489</v>
+        <v>0.0005887170425035731</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.009775224006134229</v>
+        <v>0.000149525087054576</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.001274439038598674</v>
+        <v>3.045327030012335e-05</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0002665015783586825</v>
+        <v>3.125938647803449e-07</v>
       </c>
     </row>
     <row r="8">
@@ -1078,88 +1078,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.133431275241145</v>
+        <v>0.1404711495447931</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1454254911787479</v>
+        <v>0.1311374196564567</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1438051169400618</v>
+        <v>0.1409788499190463</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1767288965350571</v>
+        <v>0.1301144876306777</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2210599029702895</v>
+        <v>0.144868288402974</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2379016492924952</v>
+        <v>0.127862682412549</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2157215715379645</v>
+        <v>0.1177518220285082</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1851525983442554</v>
+        <v>0.1421491813745259</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1748606907730203</v>
+        <v>0.1961705828318254</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2202820185790042</v>
+        <v>0.1369709603983255</v>
       </c>
       <c r="L8" t="n">
-        <v>0.252513804771288</v>
+        <v>0.1069838057701204</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2094462878463594</v>
+        <v>0.2266714817541239</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1829410238190136</v>
+        <v>0.168543279216082</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2415461724605376</v>
+        <v>0.1627837985849996</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3127662331811408</v>
+        <v>0.1279108863293576</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2465903680465243</v>
+        <v>0.2079468230554019</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1839492701747582</v>
+        <v>0.271598377699152</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09776715207366141</v>
+        <v>0.3096733939158524</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1000588385005026</v>
+        <v>0.3271869060023593</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2039810551352579</v>
+        <v>0.2793061624886043</v>
       </c>
       <c r="V8" t="n">
-        <v>0.148066490051337</v>
+        <v>0.250912438782349</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04346688029874533</v>
+        <v>0.1845452224448645</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02292180560237813</v>
+        <v>0.05715739343204779</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.004820729688679146</v>
+        <v>0.01287662062795668</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.001606108968422722</v>
+        <v>0.00850955370046249</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0002044714122418093</v>
+        <v>0.001490578214967245</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.680400378520194e-05</v>
+        <v>0.000103962208290958</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.447356100556573e-07</v>
+        <v>3.140374445391211e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1274,88 +1274,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1391664849582982</v>
+        <v>0.1416331462695319</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1417090228794613</v>
+        <v>0.1430477393481071</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1439939108775122</v>
+        <v>0.1414908781952282</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1590816332593692</v>
+        <v>0.1394234729707416</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1318502370167859</v>
+        <v>0.1361555594727539</v>
       </c>
       <c r="G2" t="n">
-        <v>0.14699122188543</v>
+        <v>0.118985747615506</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09096043060311136</v>
+        <v>0.09832509379438459</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1167190778705646</v>
+        <v>0.1331610007342927</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1133251297131102</v>
+        <v>0.175315724344013</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1318757558033485</v>
+        <v>0.1631973334540618</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1547406306243631</v>
+        <v>0.1545521243925629</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1344397073493154</v>
+        <v>0.1356170108129095</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1564224579555495</v>
+        <v>0.1730149598136387</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09647399936390393</v>
+        <v>0.1458001535258156</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07662950606153729</v>
+        <v>0.2051014878567111</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1303443947029953</v>
+        <v>0.2280688272301851</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07409346717199887</v>
+        <v>0.1406597730659122</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03006265625642452</v>
+        <v>0.09990460279038872</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1089527901667156</v>
+        <v>0.16707283313696</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05163908982372326</v>
+        <v>0.2780734064624041</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0253692681137985</v>
+        <v>0.152159596396692</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01286641670001185</v>
+        <v>0.2880838628636654</v>
       </c>
       <c r="X2" t="n">
-        <v>0.009173549630544228</v>
+        <v>0.3914625222935946</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02007597621832014</v>
+        <v>0.2554648010889283</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01158978289822802</v>
+        <v>0.1754691709367007</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.004012855182118281</v>
+        <v>0.08254620235781124</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01177670268051325</v>
+        <v>0.1443076685739178</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.001668590199654139</v>
+        <v>0.3787620763047889</v>
       </c>
     </row>
     <row r="3">
@@ -1365,88 +1365,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1535091887721334</v>
+        <v>0.1469705171983089</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1452535697005149</v>
+        <v>0.1422444554913317</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1356838857852431</v>
+        <v>0.1472032708717493</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1067404365429815</v>
+        <v>0.1526442057092625</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1558679662987765</v>
+        <v>0.1628554173356165</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1463965704660908</v>
+        <v>0.1918353181632604</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2243480971871365</v>
+        <v>0.2193736639899424</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1865051050782331</v>
+        <v>0.1793174475932066</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2187614613780545</v>
+        <v>0.1232445560428914</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1495615050534306</v>
+        <v>0.140928413937612</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1494649375431144</v>
+        <v>0.2019104292837507</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2372661008670073</v>
+        <v>0.2561273178037589</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2118946627375814</v>
+        <v>0.1732908202769264</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4155183602731074</v>
+        <v>0.2480408430659813</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4839456016271811</v>
+        <v>0.1423048061819112</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3120708893682161</v>
+        <v>0.1401631082599981</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5069703451423058</v>
+        <v>0.205762551146356</v>
       </c>
       <c r="S3" t="n">
-        <v>0.627397098755602</v>
+        <v>0.2509814720244957</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4490145758164705</v>
+        <v>0.1887484930783113</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5729037598058824</v>
+        <v>0.08408523023769915</v>
       </c>
       <c r="V3" t="n">
-        <v>0.649743518804864</v>
+        <v>0.1533245731406802</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6674204760389214</v>
+        <v>0.08719424222281852</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6831879926682919</v>
+        <v>0.04675733039376463</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6418430168248077</v>
+        <v>0.1106112823479838</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6669554072042414</v>
+        <v>0.1535648886160017</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7010269220410708</v>
+        <v>0.1998327068637139</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6787118898474437</v>
+        <v>0.1587558866124667</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6684324618370302</v>
+        <v>0.09487141344531336</v>
       </c>
     </row>
     <row r="4">
@@ -1456,88 +1456,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1535092062511403</v>
+        <v>0.1469705232997534</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1452535745346486</v>
+        <v>0.1422444545457064</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1356838778148711</v>
+        <v>0.1472032775576466</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1067407490987323</v>
+        <v>0.1526442219881939</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1558677901132902</v>
+        <v>0.1628554491402751</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1463972499557411</v>
+        <v>0.1918355792169598</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2243471052637718</v>
+        <v>0.2193733190871878</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1865049083326526</v>
+        <v>0.1793183264284732</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1701481927527432</v>
+        <v>0.1232458749731665</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1944733984381363</v>
+        <v>0.1409296384333535</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1673274048484259</v>
+        <v>0.09414026062720073</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1412493426766172</v>
+        <v>0.07364462405338074</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1149733780710879</v>
+        <v>0.1027248984867422</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05542723928356035</v>
+        <v>0.04763588713626553</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03836958701850404</v>
+        <v>0.05693706547953997</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0898257625769117</v>
+        <v>0.03128657877253534</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03804194152337328</v>
+        <v>0.01307720741306605</v>
       </c>
       <c r="S4" t="n">
-        <v>0.009333820187688179</v>
+        <v>0.007807684125078489</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01889178323413029</v>
+        <v>0.01987238217178509</v>
       </c>
       <c r="U4" t="n">
-        <v>0.004443897824149001</v>
+        <v>0.02466121716089588</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001398854511313176</v>
+        <v>0.007567758392105015</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0003337682765420855</v>
+        <v>0.007494880933535131</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0001716524062265654</v>
+        <v>0.002218507474171418</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.048819510915556e-05</v>
+        <v>0.0007147777822434777</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.953139802173081e-05</v>
+        <v>0.0002996687534154966</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.321717612124248e-06</v>
+        <v>5.671167440613672e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.170508285964241e-07</v>
+        <v>1.779825208609118e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.280988815094319e-08</v>
+        <v>3.760868192730559e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1547,88 +1547,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.153515786292536</v>
+        <v>0.1469728201484982</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1452553944363968</v>
+        <v>0.1422440985655675</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1356808776445419</v>
+        <v>0.1472057944464813</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1067328145744983</v>
+        <v>0.1526503502913626</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1558672628762862</v>
+        <v>0.1628674219944954</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1463819806665086</v>
+        <v>0.1918457706809555</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2243592538579716</v>
+        <v>0.2193962245084541</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1865040296651393</v>
+        <v>0.1793167527942006</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1814103812848893</v>
+        <v>0.1232322943360963</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2104439206547387</v>
+        <v>0.1409190689360447</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2477148664766305</v>
+        <v>0.1347899558086257</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2154764577375257</v>
+        <v>0.1186795826580589</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2528607275012536</v>
+        <v>0.1505690308861651</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1549438982054129</v>
+        <v>0.1290347317459029</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1226818747818876</v>
+        <v>0.1819171953097213</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2110218987387958</v>
+        <v>0.2002817460055462</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1190925065969661</v>
+        <v>0.1223472254389438</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04770093278951559</v>
+        <v>0.08654404693351284</v>
       </c>
       <c r="T5" t="n">
-        <v>0.175386647453297</v>
+        <v>0.1462041754681321</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07277920432826919</v>
+        <v>0.2423707456060594</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03306974716142955</v>
+        <v>0.1183174881029895</v>
       </c>
       <c r="W5" t="n">
-        <v>0.014762104458267</v>
+        <v>0.245576198958609</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01002894223300085</v>
+        <v>0.338329301905885</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01408034127108115</v>
+        <v>0.1940690278247205</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.00738175962283871</v>
+        <v>0.1231609293992758</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.00213048223977217</v>
+        <v>0.04863519309815146</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.00356719181515253</v>
+        <v>0.05910646989949948</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.000406488137486525</v>
+        <v>0.1055756416190119</v>
       </c>
     </row>
     <row r="6">
@@ -1638,88 +1638,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1272423623305174</v>
+        <v>0.1366096313609993</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1396805863871278</v>
+        <v>0.1437781260440565</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1547978109560049</v>
+        <v>0.1363353754157741</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1830689810468299</v>
+        <v>0.1285614977781644</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1366362513998173</v>
+        <v>0.113278159696932</v>
       </c>
       <c r="G6" t="n">
-        <v>0.136321567139653</v>
+        <v>0.08836108192979503</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0747260756207391</v>
+        <v>0.06883034619893909</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1059791022697616</v>
+        <v>0.09262573174783538</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09603835782785207</v>
+        <v>0.1320974529236293</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1072753802918078</v>
+        <v>0.1185050922146877</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08624257138697623</v>
+        <v>0.07630931112422792</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07261721987333498</v>
+        <v>0.058974419029726</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05662673216613449</v>
+        <v>0.08154897436970748</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02584990903562918</v>
+        <v>0.03565142437660105</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01727065600781082</v>
+        <v>0.04153684729520656</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0384392326827283</v>
+        <v>0.01808111717995912</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01515924539140245</v>
+        <v>0.006898507565493709</v>
       </c>
       <c r="S6" t="n">
-        <v>0.003320557725145389</v>
+        <v>0.003941084493386093</v>
       </c>
       <c r="T6" t="n">
-        <v>0.00869666324020154</v>
+        <v>0.01043805600099679</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002447310196345811</v>
+        <v>0.01167952124020565</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0008713283423947784</v>
+        <v>0.00413657808724332</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0002571311300188183</v>
+        <v>0.006164540923732672</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0001467299836913732</v>
+        <v>0.003469621657459401</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.30636394512498e-05</v>
+        <v>0.001350065174889559</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.73858308252052e-05</v>
+        <v>0.0006561645702028221</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.122137975581076e-06</v>
+        <v>0.0001265520167554747</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.913775473299726e-07</v>
+        <v>4.094402879584426e-05</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.269093012635975e-08</v>
+        <v>8.981183423780597e-06</v>
       </c>
     </row>
     <row r="7">
@@ -1729,88 +1729,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1452440872369973</v>
+        <v>0.1439793092003628</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1430965210894241</v>
+        <v>0.1426997082055346</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1399928238527731</v>
+        <v>0.1439694688922341</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1556762200004747</v>
+        <v>0.144995997984729</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1276979614400661</v>
+        <v>0.1476086752697806</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1410998291245725</v>
+        <v>0.1276159971182705</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08623567038556179</v>
+        <v>0.1048493629872812</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1117047437348982</v>
+        <v>0.1421842573479641</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1241379570976697</v>
+        <v>0.1889352520962166</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09874289339375444</v>
+        <v>0.1752439535894331</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1075375655153288</v>
+        <v>0.2606461869663705</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1257064436450935</v>
+        <v>0.296893197490491</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1499302934400394</v>
+        <v>0.235730889965324</v>
       </c>
       <c r="O7" t="n">
-        <v>0.225433199031576</v>
+        <v>0.3573480941409842</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2434062549724076</v>
+        <v>0.3296108042105146</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1784262182831614</v>
+        <v>0.3629552485205037</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2307588842566031</v>
+        <v>0.5038491315345319</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2786500522875377</v>
+        <v>0.5465636509146178</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2312625903338657</v>
+        <v>0.4564029962911529</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2938442155529388</v>
+        <v>0.3463360891045508</v>
       </c>
       <c r="V7" t="n">
-        <v>0.288910543106309</v>
+        <v>0.5603836238609339</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3041971661548976</v>
+        <v>0.3608209410626411</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2972043063391754</v>
+        <v>0.2161069103474717</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3238551304368965</v>
+        <v>0.437222647100589</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3140255467253729</v>
+        <v>0.5465991772240562</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2928239804099204</v>
+        <v>0.6687537706377293</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3059431602021779</v>
+        <v>0.637755080089089</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3294924260143861</v>
+        <v>0.4207744886900715</v>
       </c>
     </row>
     <row r="8">
@@ -1820,88 +1820,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1278128841583774</v>
+        <v>0.1368640525225455</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1397513309724266</v>
+        <v>0.1437414177996963</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1541668130690537</v>
+        <v>0.1365919346208864</v>
       </c>
       <c r="E8" t="n">
-        <v>0.181959165477114</v>
+        <v>0.1290802532775461</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1362125308549778</v>
+        <v>0.1143793170901467</v>
       </c>
       <c r="G8" t="n">
-        <v>0.136411580762004</v>
+        <v>0.08952050527525285</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07502336708170798</v>
+        <v>0.06985198943381085</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1060830330487505</v>
+        <v>0.09407648335402741</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09617851994568093</v>
+        <v>0.1339288452839869</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1076271463647836</v>
+        <v>0.1202764994348074</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08697202360516108</v>
+        <v>0.07765173179726161</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0732447278511059</v>
+        <v>0.06006384815167523</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05729174812835355</v>
+        <v>0.08312042620149629</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02635339480681024</v>
+        <v>0.03648886600844963</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01769651953067173</v>
+        <v>0.04259179366639523</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03987160364719131</v>
+        <v>0.01916337403127231</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01588360991735057</v>
+        <v>0.007405603835696292</v>
       </c>
       <c r="S8" t="n">
-        <v>0.003534881998086493</v>
+        <v>0.004257458718520492</v>
       </c>
       <c r="T8" t="n">
-        <v>0.007794949755319423</v>
+        <v>0.01126106385266183</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001942522468691368</v>
+        <v>0.01279379018818495</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0006367399598908558</v>
+        <v>0.004110382019356087</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0001629372413412257</v>
+        <v>0.004665333034998136</v>
       </c>
       <c r="X8" t="n">
-        <v>8.682673906964497e-05</v>
+        <v>0.001655805927653204</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.198341433409952e-05</v>
+        <v>0.0005673986806454449</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.058632047202041e-05</v>
+        <v>0.000250000500347291</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.316271530619218e-06</v>
+        <v>4.886335143235894e-05</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.470263369464789e-07</v>
+        <v>1.615254414509227e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.310624929319817e-09</v>
+        <v>3.637889197632941e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2016,88 +2016,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1407098109466433</v>
+        <v>0.1417541346596156</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1421871286199376</v>
+        <v>0.1426339367783505</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1425469187477869</v>
+        <v>0.1437010885011895</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1626973773406807</v>
+        <v>0.145198727961833</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1490817596819598</v>
+        <v>0.1463637767666189</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1655832403687317</v>
+        <v>0.1631654191255127</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1856519396935784</v>
+        <v>0.1465051595737531</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1963437594828693</v>
+        <v>0.1379243385032489</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2108553729173115</v>
+        <v>0.1204626648357943</v>
       </c>
       <c r="K2" t="n">
-        <v>0.235015539081515</v>
+        <v>0.101212247582192</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2582670990762977</v>
+        <v>0.1118719742344717</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2590351299099622</v>
+        <v>0.1144348248142476</v>
       </c>
       <c r="N2" t="n">
-        <v>0.176769899787655</v>
+        <v>0.1198302559700407</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1281137889492957</v>
+        <v>0.129067337280129</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08896916019805086</v>
+        <v>0.1180057021499367</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07457907582148017</v>
+        <v>0.1052444648913663</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05532273919947706</v>
+        <v>0.1185958471930246</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02040655869662485</v>
+        <v>0.09828498927694329</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03741051755126645</v>
+        <v>0.08651016087654449</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01938057747403544</v>
+        <v>0.06432598027703923</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02113300897738796</v>
+        <v>0.0394430461962551</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01109175348573742</v>
+        <v>0.02587555490894023</v>
       </c>
       <c r="X2" t="n">
-        <v>0.006611102758177046</v>
+        <v>0.0141290374729555</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.006780323333846141</v>
+        <v>0.006949688625128109</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001968459375714063</v>
+        <v>0.009058909935212004</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.838890596677367e-05</v>
+        <v>0.002374946423619276</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.308547843798132e-06</v>
+        <v>0.01738390862509858</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.579784939708981e-08</v>
+        <v>0.01323822075370392</v>
       </c>
     </row>
     <row r="3">
@@ -2107,88 +2107,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1494582022075891</v>
+        <v>0.1464197098487704</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1447320723155272</v>
+        <v>0.1430367019458194</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1458694504060308</v>
+        <v>0.1394959490449849</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1107117208955143</v>
+        <v>0.1338406056037971</v>
       </c>
       <c r="F3" t="n">
-        <v>0.133991976414467</v>
+        <v>0.1269251183834509</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1056350501270045</v>
+        <v>0.09624536709629448</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07361513897359799</v>
+        <v>0.1282089209760826</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04236247642864836</v>
+        <v>0.1465654735223512</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01367165779284446</v>
+        <v>0.1776901369049034</v>
       </c>
       <c r="K3" t="n">
-        <v>0.009954310822320697</v>
+        <v>0.2077375147217674</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01768660189590381</v>
+        <v>0.1555526992727867</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004841630591515453</v>
+        <v>0.09879215406021739</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001288822765810112</v>
+        <v>0.06377413398030186</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0004858192905906122</v>
+        <v>0.04874522993468956</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0002030124020046721</v>
+        <v>0.03236958456420928</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.105077405873133e-05</v>
+        <v>0.02059947756202337</v>
       </c>
       <c r="R3" t="n">
-        <v>2.118272351603953e-05</v>
+        <v>0.02678090932584576</v>
       </c>
       <c r="S3" t="n">
-        <v>3.06805584042228e-06</v>
+        <v>0.01279298645201338</v>
       </c>
       <c r="T3" t="n">
-        <v>1.738086869299396e-05</v>
+        <v>0.005547220038413788</v>
       </c>
       <c r="U3" t="n">
-        <v>3.1129251698513e-06</v>
+        <v>0.001372958107456888</v>
       </c>
       <c r="V3" t="n">
-        <v>6.041584631689038e-07</v>
+        <v>0.000470964976374706</v>
       </c>
       <c r="W3" t="n">
-        <v>1.827032624583539e-07</v>
+        <v>0.0001205923863100367</v>
       </c>
       <c r="X3" t="n">
-        <v>7.327706854055459e-08</v>
+        <v>5.543816855737427e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.005317701740324e-09</v>
+        <v>1.923645277350115e-05</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.762739369005867e-11</v>
+        <v>6.774197971138684e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.754417311996241e-13</v>
+        <v>1.130860579124667e-06</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.328500756915688e-14</v>
+        <v>9.863080711707847e-06</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.722267775264328e-16</v>
+        <v>6.62041475086266e-06</v>
       </c>
     </row>
     <row r="4">
@@ -2198,88 +2198,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1494582126047027</v>
+        <v>0.1464197152812965</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1447320754519901</v>
+        <v>0.1430367026952725</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1458694531974659</v>
+        <v>0.1394959445015032</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1107121349717645</v>
+        <v>0.1338405932394876</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1339920744099585</v>
+        <v>0.1269250981550405</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1056354808405338</v>
+        <v>0.0962457288246362</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07361583017087418</v>
+        <v>0.1282089167910668</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04236309524175949</v>
+        <v>0.1465654462246719</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05192544161579165</v>
+        <v>0.1776899076952055</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05117181689374376</v>
+        <v>0.207736881702502</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04441781389229955</v>
+        <v>0.2254836228202119</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05317348782848464</v>
+        <v>0.2632349163697558</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06208116919835844</v>
+        <v>0.2820028227124723</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06269760318893891</v>
+        <v>0.279058426090577</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06065105320670039</v>
+        <v>0.3090119239026951</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.06400237096944519</v>
+        <v>0.331801080074746</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06099243215831739</v>
+        <v>0.3119201575297234</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05188087695528747</v>
+        <v>0.3465300000018595</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04492719465056711</v>
+        <v>0.3730988510833048</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04583807937171913</v>
+        <v>0.4091237611330877</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03537282858410293</v>
+        <v>0.4709049968682021</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04530788286519032</v>
+        <v>0.484558132203963</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05521303241326567</v>
+        <v>0.570357651052271</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0520401839248749</v>
+        <v>0.6398983464028616</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04918162325258955</v>
+        <v>0.593712313997074</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.05323474973409311</v>
+        <v>0.6159450178180828</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.04573707291095222</v>
+        <v>0.569645203020933</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01025688636576148</v>
+        <v>0.5833146514343949</v>
       </c>
     </row>
     <row r="5">
@@ -2289,88 +2289,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1494621265988084</v>
+        <v>0.1464217603378991</v>
       </c>
       <c r="C5" t="n">
-        <v>0.144733256191022</v>
+        <v>0.1430369848669547</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1458705038595461</v>
+        <v>0.1394942341782485</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1107057295732584</v>
+        <v>0.1338359388743465</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1339913711356868</v>
+        <v>0.1269174836021037</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1056287464455383</v>
+        <v>0.09623336243921672</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07360430048767179</v>
+        <v>0.1282009410764363</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0423525960348047</v>
+        <v>0.1465567213518326</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04517932057208249</v>
+        <v>0.1776827577302112</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05045595172186966</v>
+        <v>0.2077349043297663</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05581214620827731</v>
+        <v>0.2294204727439772</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05545222028775926</v>
+        <v>0.2335874287577467</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03730279152260702</v>
+        <v>0.2439642901660058</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02722830658636551</v>
+        <v>0.2630069809478382</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01902938634745415</v>
+        <v>0.2393523796461369</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01612709945344067</v>
+        <v>0.2142769159285603</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01201915068653992</v>
+        <v>0.2405663075689449</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004501505858403627</v>
+        <v>0.2006509889416636</v>
       </c>
       <c r="T5" t="n">
-        <v>0.007156488441772108</v>
+        <v>0.177875409353871</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004402127925981169</v>
+        <v>0.1340458802934268</v>
       </c>
       <c r="V5" t="n">
-        <v>0.005598896972215288</v>
+        <v>0.09032238209483792</v>
       </c>
       <c r="W5" t="n">
-        <v>0.003254501144739947</v>
+        <v>0.06978606027440259</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002092538233076092</v>
+        <v>0.03964484192445664</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003782888685628927</v>
+        <v>0.02090792857779943</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.003642531184801962</v>
+        <v>0.03063680036891677</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.440390720462281e-05</v>
+        <v>0.009177653467880137</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.387375394749277e-06</v>
+        <v>0.06079885177205903</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.117425087389461e-07</v>
+        <v>0.04785321298158231</v>
       </c>
     </row>
     <row r="6">
@@ -2380,88 +2380,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1330303548434384</v>
+        <v>0.1374932561611737</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1401303903411292</v>
+        <v>0.1427641595063004</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1376608121339371</v>
+        <v>0.1481274882542799</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1696687949967374</v>
+        <v>0.1569156551854125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1487310756984522</v>
+        <v>0.1683550381590273</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1742965952802052</v>
+        <v>0.1979100755028481</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2016837405135641</v>
+        <v>0.1663153033554776</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2369988972663875</v>
+        <v>0.1472669057957148</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2914189517355474</v>
+        <v>0.1176967037885773</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2818667803164652</v>
+        <v>0.09136227768030797</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2382817734984038</v>
+        <v>0.0984634000057706</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2853259189413597</v>
+        <v>0.1160451819857388</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3530263641248356</v>
+        <v>0.1235782854277077</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3903384760220867</v>
+        <v>0.1204956025986485</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4208340547453956</v>
+        <v>0.13683631338271</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4276379395907454</v>
+        <v>0.1554426734362294</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4440195601721468</v>
+        <v>0.1387204744456523</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4778337868206095</v>
+        <v>0.1653147168484588</v>
       </c>
       <c r="T6" t="n">
-        <v>0.500323831007257</v>
+        <v>0.1760085611943784</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5013890763232939</v>
+        <v>0.1953299513076268</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5596339469814103</v>
+        <v>0.187223452184362</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5110674960688282</v>
+        <v>0.1976484305704545</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4663039786014028</v>
+        <v>0.1536526491690782</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4596004960774496</v>
+        <v>0.1174143067482034</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.4555808911217583</v>
+        <v>0.1456516441655696</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.4715843826638276</v>
+        <v>0.1491607984296839</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.4726106483307015</v>
+        <v>0.1387967875605757</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3946885406439785</v>
+        <v>0.1407373331326203</v>
       </c>
     </row>
     <row r="7">
@@ -2471,88 +2471,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1444733966196949</v>
+        <v>0.1437848599949027</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1432579453346183</v>
+        <v>0.1427471409143379</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1442306230643186</v>
+        <v>0.1417940051883941</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1658535305638911</v>
+        <v>0.1400704781783931</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1513091416622801</v>
+        <v>0.1373708046971002</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1689782686245591</v>
+        <v>0.1539913447881926</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1902971903281509</v>
+        <v>0.1373649138262229</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2034320929787498</v>
+        <v>0.128577201432745</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09662385512549622</v>
+        <v>0.1113525059433438</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09034350167519276</v>
+        <v>0.09285226231290601</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1473735599985951</v>
+        <v>0.08068964427785662</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0569601115529098</v>
+        <v>0.0578695756428754</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01808660880613034</v>
+        <v>0.04322224486922797</v>
       </c>
       <c r="O7" t="n">
-        <v>0.007543065477463961</v>
+        <v>0.03895155740781384</v>
       </c>
       <c r="P7" t="n">
-        <v>0.003385511917971252</v>
+        <v>0.02763520611637795</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0008468565915922574</v>
+        <v>0.01852904023622457</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0004593624991880667</v>
+        <v>0.0248493800615671</v>
       </c>
       <c r="S7" t="n">
-        <v>7.353042067587597e-05</v>
+        <v>0.01284820890651619</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0003862528200299714</v>
+        <v>0.006155189552333409</v>
       </c>
       <c r="U7" t="n">
-        <v>7.700791407876444e-05</v>
+        <v>0.001680744627608393</v>
       </c>
       <c r="V7" t="n">
-        <v>1.753913195999129e-05</v>
+        <v>0.0006141250916492701</v>
       </c>
       <c r="W7" t="n">
-        <v>5.603370558847316e-06</v>
+        <v>0.0001677219824497984</v>
       </c>
       <c r="X7" t="n">
-        <v>2.335835152041706e-06</v>
+        <v>7.858045960906905e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.048516644350232e-07</v>
+        <v>2.821589481204125e-05</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.172522378172109e-09</v>
+        <v>1.071837852063366e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.713082782174585e-11</v>
+        <v>1.85324323077917e-06</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.340675699597189e-13</v>
+        <v>1.608005604586537e-05</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.473943278928618e-14</v>
+        <v>1.090461479782948e-05</v>
       </c>
     </row>
     <row r="8">
@@ -2562,88 +2562,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1334078961791233</v>
+        <v>0.137706563716342</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1402271317457753</v>
+        <v>0.1427443732929645</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1379522385909144</v>
+        <v>0.1478912903314</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1696507116581536</v>
+        <v>0.1562980009567303</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1489026009971953</v>
+        <v>0.1671426802366586</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1742426183134274</v>
+        <v>0.1962087022232993</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2015318598325626</v>
+        <v>0.1651958444009608</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2361470825667809</v>
+        <v>0.1465439131694356</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2903254002409263</v>
+        <v>0.1174253231019644</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2811920994888931</v>
+        <v>0.09136391167055845</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2381610054302228</v>
+        <v>0.09851818664492522</v>
       </c>
       <c r="M8" t="n">
-        <v>0.285211500888009</v>
+        <v>0.1160359183694182</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3514443437946034</v>
+        <v>0.1236279668742435</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3835929404852586</v>
+        <v>0.1206748657403039</v>
       </c>
       <c r="P8" t="n">
-        <v>0.406927821182423</v>
+        <v>0.136788890237934</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4167656067992375</v>
+        <v>0.1541063478708498</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4271655725608148</v>
+        <v>0.138566923875242</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4453006731925582</v>
+        <v>0.1635781095725452</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4097783346604144</v>
+        <v>0.1748046079011543</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4289100180657217</v>
+        <v>0.1941207242537541</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3782431751944603</v>
+        <v>0.2110210325883188</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4292725803616828</v>
+        <v>0.22184350767348</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4697769388818578</v>
+        <v>0.2220818017530724</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4777958971212182</v>
+        <v>0.2147822772984221</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.4896264938549862</v>
+        <v>0.2209228389567358</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.4750780747609016</v>
+        <v>0.2233385997569239</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4816485828343502</v>
+        <v>0.2133493058845761</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5950544054498764</v>
+        <v>0.2148390566681498</v>
       </c>
     </row>
   </sheetData>
@@ -2758,88 +2758,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1452105117012723</v>
+        <v>0.1415524718497145</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1476487596793334</v>
+        <v>0.1395283737979907</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1479850147313629</v>
+        <v>0.1371164969717026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1543903060046675</v>
+        <v>0.1357764724376548</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1705718393131661</v>
+        <v>0.1334349234346683</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1762593784128916</v>
+        <v>0.1114973817118522</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1976142660557887</v>
+        <v>0.1769530384950671</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2060536993368474</v>
+        <v>0.1708879517485359</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2303987981647506</v>
+        <v>0.1432586548365678</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2501599378199307</v>
+        <v>0.1757845947020978</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2673420577118384</v>
+        <v>0.1578117038771085</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2959937194895984</v>
+        <v>0.1389004985009692</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3542138953636152</v>
+        <v>0.199381432150269</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3334170547637829</v>
+        <v>0.2345851677142034</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4104271656628726</v>
+        <v>0.1837096380061431</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.285523729103549</v>
+        <v>0.1544154257311827</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2949790491691515</v>
+        <v>0.1799205730054229</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3912831322200734</v>
+        <v>0.2082894577502257</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4009740531954644</v>
+        <v>0.07349907445047625</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2719338870727076</v>
+        <v>0.04971785628119146</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1707437417623822</v>
+        <v>0.02142580662247822</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3445831081909629</v>
+        <v>0.0120245535619031</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6745873377021034</v>
+        <v>0.02948787481653667</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7176097453981513</v>
+        <v>0.007738575169829101</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5856248342162013</v>
+        <v>0.01465265575436406</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6718558583887505</v>
+        <v>0.004833923718132832</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7590277670673761</v>
+        <v>0.00337937200877606</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5418947436696514</v>
+        <v>0.02566876426179052</v>
       </c>
     </row>
     <row r="3">
@@ -2849,88 +2849,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1354338344374321</v>
+        <v>0.1473399825999644</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1263872813402847</v>
+        <v>0.153099167245918</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1280955777636775</v>
+        <v>0.1592292338346764</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1218829206407799</v>
+        <v>0.1637269174098761</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08901153603926874</v>
+        <v>0.1687657534281756</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09108821780509577</v>
+        <v>0.1999514951955078</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05797008498362622</v>
+        <v>0.08428044790984004</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06705431997108292</v>
+        <v>0.1023822883723466</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03572926300299515</v>
+        <v>0.1487145815062483</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03028429673100372</v>
+        <v>0.09280768124150668</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01472079968293049</v>
+        <v>0.1580803367400518</v>
       </c>
       <c r="M3" t="n">
-        <v>0.009672246429623318</v>
+        <v>0.2094492870236472</v>
       </c>
       <c r="N3" t="n">
-        <v>0.008430574669667068</v>
+        <v>0.01388553092626425</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003017912700706614</v>
+        <v>0.03136032444098528</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01042742817883924</v>
+        <v>0.01203867472790016</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001986192750604343</v>
+        <v>0.00689712357566739</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0005258254796635894</v>
+        <v>0.003466683413958413</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0003776259538188923</v>
+        <v>0.001587273898572039</v>
       </c>
       <c r="T3" t="n">
-        <v>4.752584033581289e-05</v>
+        <v>0.000213516310391123</v>
       </c>
       <c r="U3" t="n">
-        <v>1.455086980140401e-05</v>
+        <v>9.718168199987417e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.011080947508939e-06</v>
+        <v>2.026106068926463e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>4.863698651151263e-07</v>
+        <v>4.472854040451397e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>5.85586765749159e-07</v>
+        <v>2.942016396970979e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.899758511733215e-08</v>
+        <v>3.590488109510392e-07</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.640109720617261e-09</v>
+        <v>1.980581991963844e-08</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.50410839974939e-09</v>
+        <v>4.190991082858058e-09</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.211312070526827e-10</v>
+        <v>1.207741927364146e-09</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.450641597641461e-11</v>
+        <v>1.093422662738189e-09</v>
       </c>
     </row>
     <row r="4">
@@ -2940,88 +2940,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1354338230907142</v>
+        <v>0.1473399891474718</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1263872575411925</v>
+        <v>0.1530991833269181</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1280955543706084</v>
+        <v>0.159229260953123</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1218832933015017</v>
+        <v>0.1637269508883264</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08901213819675655</v>
+        <v>0.1687657972077983</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09108906704808553</v>
+        <v>0.1999510190487</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05797106184469566</v>
+        <v>0.08428077153893869</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06705565880379737</v>
+        <v>0.1023827746799638</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07541100306374186</v>
+        <v>0.1487145539951345</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0748548060483301</v>
+        <v>0.09280816879832963</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0815291157418372</v>
+        <v>0.06710121160406537</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08107959626356553</v>
+        <v>0.05139070390141979</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07188779492220804</v>
+        <v>0.1337535460874646</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08256170573337289</v>
+        <v>0.110002715912985</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06221759541248094</v>
+        <v>0.1378231908119663</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.08968131637881679</v>
+        <v>0.1443406109365257</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09657264111589173</v>
+        <v>0.1530819293941605</v>
       </c>
       <c r="S4" t="n">
-        <v>0.09299497533270221</v>
+        <v>0.1517501196710505</v>
       </c>
       <c r="T4" t="n">
-        <v>0.08123610502348509</v>
+        <v>0.1675822100029361</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1270874539465476</v>
+        <v>0.158207420962657</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1371961675064408</v>
+        <v>0.2000361073697394</v>
       </c>
       <c r="W4" t="n">
-        <v>0.05949957570688394</v>
+        <v>0.1949128854238934</v>
       </c>
       <c r="X4" t="n">
-        <v>0.003343410735640066</v>
+        <v>0.1556947290411902</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0003684499078992971</v>
+        <v>0.188819424606163</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0001336058541196488</v>
+        <v>0.154504450882796</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.036992710994839e-05</v>
+        <v>0.1664833354691264</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.678305901527479e-07</v>
+        <v>0.1531902429342196</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.092200535579799e-08</v>
+        <v>0.1394608120481051</v>
       </c>
     </row>
     <row r="5">
@@ -3031,88 +3031,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1354295516726802</v>
+        <v>0.1473424539011905</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1263782986312401</v>
+        <v>0.1531052370093051</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1280867481485101</v>
+        <v>0.1592394698314308</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1218680086877643</v>
+        <v>0.1637395538680176</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08899520663137504</v>
+        <v>0.1687822783228619</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09106766620566709</v>
+        <v>0.1999797783286021</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05794981375074282</v>
+        <v>0.08428372649263197</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06702742939042601</v>
+        <v>0.1023847339345048</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07477489977730815</v>
+        <v>0.1487302323891339</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08122211660873593</v>
+        <v>0.09280912785837073</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08649399485743867</v>
+        <v>0.083859596871921</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09570299765015509</v>
+        <v>0.07411045083855651</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1150320658361611</v>
+        <v>0.1038801360976365</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1090140455545101</v>
+        <v>0.1234845588696857</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1327141756674276</v>
+        <v>0.09560691525920473</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09378065237948753</v>
+        <v>0.08071609407154251</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09756181406863094</v>
+        <v>0.09440903341135896</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1294903092233222</v>
+        <v>0.1091041139684696</v>
       </c>
       <c r="T5" t="n">
-        <v>0.142562324892749</v>
+        <v>0.03935182864544171</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1090899621819271</v>
+        <v>0.02677070497905738</v>
       </c>
       <c r="V5" t="n">
-        <v>0.08982261431646842</v>
+        <v>0.01321595910128122</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1731923349657365</v>
+        <v>0.008652975721721527</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2578214355517826</v>
+        <v>0.01924236776940686</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2743308839802882</v>
+        <v>0.006099145320332407</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.411130354263369</v>
+        <v>0.01143115612885166</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3278733666702354</v>
+        <v>0.004239302458876298</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2409559773690352</v>
+        <v>0.004561947822394124</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.4581048983456374</v>
+        <v>0.0246773537122175</v>
       </c>
     </row>
     <row r="6">
@@ -3122,88 +3122,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1539837235054982</v>
+        <v>0.1360163319497863</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1680079572148882</v>
+        <v>0.1276044180504803</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1645365968345917</v>
+        <v>0.1189331036161457</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1677139553627447</v>
+        <v>0.1120841231831863</v>
       </c>
       <c r="F6" t="n">
-        <v>0.200993004749078</v>
+        <v>0.1053495052832581</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1925681904046573</v>
+        <v>0.08219428844316504</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2212335575088011</v>
+        <v>0.1837710353272134</v>
       </c>
       <c r="I6" t="n">
-        <v>0.200044393722487</v>
+        <v>0.1636959405387478</v>
       </c>
       <c r="J6" t="n">
-        <v>0.223238833003478</v>
+        <v>0.1243812301049442</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2170886323964141</v>
+        <v>0.1725593238372577</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2337987597800526</v>
+        <v>0.121968263143375</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2257532476732658</v>
+        <v>0.0920243058079723</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1903603557744447</v>
+        <v>0.249078539116581</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2202671113679459</v>
+        <v>0.1971479614090224</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1460983828447165</v>
+        <v>0.2618557461078552</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.254258547610598</v>
+        <v>0.293668311619762</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2494504528433599</v>
+        <v>0.2742857552261733</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1841629938364373</v>
+        <v>0.2558942938424282</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1912755388410932</v>
+        <v>0.3598273911576587</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2297044839643934</v>
+        <v>0.3871201933714746</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2937751036215095</v>
+        <v>0.3411956456608645</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2534561524584261</v>
+        <v>0.3477968597110108</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05021156441205341</v>
+        <v>0.4025647188360362</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.005942019947869664</v>
+        <v>0.3407583040765058</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.002367898642014109</v>
+        <v>0.3979569982949413</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0001959476261400229</v>
+        <v>0.4075297330676211</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.157327848243205e-05</v>
+        <v>0.4035941566163906</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.479241250077419e-07</v>
+        <v>0.3836427347537286</v>
       </c>
     </row>
     <row r="7">
@@ -3213,88 +3213,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1409549928501424</v>
+        <v>0.1441103965757222</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1382091141665078</v>
+        <v>0.145373937076986</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1394233441669667</v>
+        <v>0.146453507057841</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1451885705322234</v>
+        <v>0.1477261626501707</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1616670442451332</v>
+        <v>0.1482444600384487</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1660496746708562</v>
+        <v>0.1230467178093252</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1868739649028173</v>
+        <v>0.2018502103615447</v>
       </c>
       <c r="I7" t="n">
-        <v>0.192539981324963</v>
+        <v>0.1934529806207306</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1368725832525374</v>
+        <v>0.1606176320846129</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1286380572993615</v>
+        <v>0.1995766770067604</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08139198290970358</v>
+        <v>0.2882388144340568</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06464520058917059</v>
+        <v>0.3412682298466224</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06782596461779122</v>
+        <v>0.04935332677468973</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02919149050305163</v>
+        <v>0.1044720145357073</v>
       </c>
       <c r="P7" t="n">
-        <v>0.08780499529242462</v>
+        <v>0.04582441987771625</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01996909532222541</v>
+        <v>0.02782565265326998</v>
       </c>
       <c r="R7" t="n">
-        <v>0.006868692926094307</v>
+        <v>0.01630362262228074</v>
       </c>
       <c r="S7" t="n">
-        <v>0.005630793568139986</v>
+        <v>0.01115478363335429</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001029339856650583</v>
+        <v>0.001591016096680899</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003451184879475944</v>
+        <v>0.0007614506552334209</v>
       </c>
       <c r="V7" t="n">
-        <v>2.999150413601217e-05</v>
+        <v>0.0001706405083317835</v>
       </c>
       <c r="W7" t="n">
-        <v>1.820852405483771e-05</v>
+        <v>4.141556102855991e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>2.536193327149115e-05</v>
+        <v>3.291460147622219e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.731017408355466e-06</v>
+        <v>4.277674289195845e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.47583515837239e-07</v>
+        <v>3.454058281115691e-07</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.377108988203728e-07</v>
+        <v>7.579028338235331e-08</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.080116383617245e-07</v>
+        <v>2.295400737109325e-08</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.469644893229433e-09</v>
+        <v>2.421679274944052e-08</v>
       </c>
     </row>
     <row r="8">
@@ -3304,88 +3304,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1535535627422605</v>
+        <v>0.1362983739761504</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1669813314265534</v>
+        <v>0.1281896834924018</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1637771639842827</v>
+        <v>0.1197989277350805</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1670729454703184</v>
+        <v>0.1132198195627682</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1997492308252223</v>
+        <v>0.106657282284789</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1918778054527464</v>
+        <v>0.08337931946284752</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2203872509535282</v>
+        <v>0.1845807698747643</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2002245174503963</v>
+        <v>0.1648133301051704</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2235746197351888</v>
+        <v>0.1255831150833585</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2177521530962238</v>
+        <v>0.1736544265556771</v>
       </c>
       <c r="L8" t="n">
-        <v>0.234723289316199</v>
+        <v>0.1229400733294216</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2271529919046213</v>
+        <v>0.09285652408081255</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1922493488161128</v>
+        <v>0.2506674888470948</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2225306793766298</v>
+        <v>0.198947257117411</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1503102569412384</v>
+        <v>0.2631414152092142</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.254800466454719</v>
+        <v>0.2921367814120497</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2540415243972082</v>
+        <v>0.2785324029266453</v>
       </c>
       <c r="S8" t="n">
-        <v>0.196060169865506</v>
+        <v>0.2622199572358995</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1828751123502219</v>
+        <v>0.3579349633364152</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2618245434766753</v>
+        <v>0.3773251920683864</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3084313702081156</v>
+        <v>0.4239355796766157</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1692501337840704</v>
+        <v>0.4365668371664022</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01401030407838347</v>
+        <v>0.3929744529189569</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001744080750798126</v>
+        <v>0.4565799141040695</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0007429538006704349</v>
+        <v>0.4214543737273989</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.431817275687161e-05</v>
+        <v>0.4169136253049688</v>
       </c>
       <c r="AB8" t="n">
-        <v>4.00562174656771e-06</v>
+        <v>0.4352742564564703</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.262442973174852e-08</v>
+        <v>0.4265503099139428</v>
       </c>
     </row>
   </sheetData>
@@ -3500,88 +3500,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1450258706616232</v>
+        <v>0.1417893648790085</v>
       </c>
       <c r="C2" t="n">
-        <v>0.146040531134624</v>
+        <v>0.147283560619935</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1438562760018361</v>
+        <v>0.1481888162344633</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1270002009068073</v>
+        <v>0.149076325830095</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09691061945962282</v>
+        <v>0.1490462567827608</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1456900483792438</v>
+        <v>0.1379634694220371</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1664347256426404</v>
+        <v>0.1498793867906501</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1494012316613207</v>
+        <v>0.1707633304470294</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1419997633561439</v>
+        <v>0.1690683071637575</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1638440042978865</v>
+        <v>0.1528371455294786</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1697494299545443</v>
+        <v>0.1515330305258921</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1527426001517633</v>
+        <v>0.1407974402340841</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1859478613445582</v>
+        <v>0.1193184792636137</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2070269196233972</v>
+        <v>0.1301813283072758</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1875894664925303</v>
+        <v>0.1200496047902205</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07679876945916002</v>
+        <v>0.1054066996606282</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04307805407658791</v>
+        <v>0.1430184774830102</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02016358892452515</v>
+        <v>0.1278734039675827</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05680065448243068</v>
+        <v>0.08743617640135727</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02705783736774123</v>
+        <v>0.07275494207637896</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03906744127990511</v>
+        <v>0.04794632402267962</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02372496080238962</v>
+        <v>0.06566865525870007</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01538648071337709</v>
+        <v>0.07062693400233505</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002134854401395606</v>
+        <v>0.1733358928445809</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0002333717896176335</v>
+        <v>0.04344363140803644</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.718335313616714e-05</v>
+        <v>0.02183107349082643</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.284458396246791e-05</v>
+        <v>0.01376273127567598</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.914861750931328e-07</v>
+        <v>0.009645264791739211</v>
       </c>
     </row>
     <row r="3">
@@ -3591,88 +3591,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1362734764666019</v>
+        <v>0.1463064289816854</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1315029084808448</v>
+        <v>0.1250815974645257</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1420466582871203</v>
+        <v>0.1190970176457697</v>
       </c>
       <c r="E3" t="n">
-        <v>0.169332768785092</v>
+        <v>0.1160154147923512</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2145636036337286</v>
+        <v>0.1221979197287221</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1433265698118822</v>
+        <v>0.1440341319171025</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1042604151091854</v>
+        <v>0.1219821464864564</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1365002936164235</v>
+        <v>0.08326867956692571</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2125679430888179</v>
+        <v>0.09591136273355218</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05376591573895758</v>
+        <v>0.1256913160853218</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1023405767947007</v>
+        <v>0.08609843496170934</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04870200260689489</v>
+        <v>0.05127144125067232</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03585865284403879</v>
+        <v>0.02798666992513051</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009054136715380029</v>
+        <v>0.04321521431626055</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00129840549018412</v>
+        <v>0.02831377849890974</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001944635846009097</v>
+        <v>0.01797151677945281</v>
       </c>
       <c r="R3" t="n">
-        <v>3.805756499367104e-05</v>
+        <v>0.02411040336036163</v>
       </c>
       <c r="S3" t="n">
-        <v>4.420390611970425e-06</v>
+        <v>0.0141969362802055</v>
       </c>
       <c r="T3" t="n">
-        <v>3.886903764368224e-05</v>
+        <v>0.004768364724556297</v>
       </c>
       <c r="U3" t="n">
-        <v>1.600894106987092e-06</v>
+        <v>0.001812130578889611</v>
       </c>
       <c r="V3" t="n">
-        <v>3.348583580656785e-07</v>
+        <v>0.0008028901585469828</v>
       </c>
       <c r="W3" t="n">
-        <v>1.054258981985032e-07</v>
+        <v>0.0003587183142640803</v>
       </c>
       <c r="X3" t="n">
-        <v>2.170107427167075e-08</v>
+        <v>5.300813018243051e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.893633263355716e-09</v>
+        <v>6.557664207643793e-05</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.576461187484323e-11</v>
+        <v>1.330461950916918e-05</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.501773612135081e-12</v>
+        <v>5.170811177169475e-06</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.99144655574583e-13</v>
+        <v>2.667185658359335e-06</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.826828723649215e-14</v>
+        <v>1.620837160129069e-06</v>
       </c>
     </row>
     <row r="4">
@@ -3682,88 +3682,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1362734662132917</v>
+        <v>0.1463064342419723</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1315028923184936</v>
+        <v>0.1250815737270758</v>
       </c>
       <c r="D4" t="n">
-        <v>0.142046654863659</v>
+        <v>0.1190969874774978</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1693323292404242</v>
+        <v>0.1160153803676227</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2145623096202057</v>
+        <v>0.1221978897629739</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1433267703276292</v>
+        <v>0.1440339311941792</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1042609313360081</v>
+        <v>0.1219822469378935</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1365006099881313</v>
+        <v>0.08326916429634167</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09505016770122762</v>
+        <v>0.0959120766374712</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1758528056449825</v>
+        <v>0.1256917514730248</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1424685768448751</v>
+        <v>0.1452825840090428</v>
       </c>
       <c r="M4" t="n">
-        <v>0.184581369522205</v>
+        <v>0.1670084947583851</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1736526181026735</v>
+        <v>0.1864489257366669</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1886217756194347</v>
+        <v>0.1747839748570444</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2124720997550633</v>
+        <v>0.1861956697767762</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2343807466887391</v>
+        <v>0.1928249852291668</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2347435512498079</v>
+        <v>0.1830622078483813</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2335514074406948</v>
+        <v>0.1933519819037542</v>
       </c>
       <c r="T4" t="n">
-        <v>0.188423945211307</v>
+        <v>0.2046545014397233</v>
       </c>
       <c r="U4" t="n">
-        <v>0.18767049590233</v>
+        <v>0.2198454945468924</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1428950856045849</v>
+        <v>0.2576089098996579</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1559950444132161</v>
+        <v>0.2171987222851322</v>
       </c>
       <c r="X4" t="n">
-        <v>0.08659303613921983</v>
+        <v>0.1906980951800631</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1006615002011619</v>
+        <v>0.1190518296363011</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0943756553812317</v>
+        <v>0.2536387081444992</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1247204597555784</v>
+        <v>0.2786306019612392</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1072155210302263</v>
+        <v>0.2890727390713242</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.09479826498019339</v>
+        <v>0.2959004373604843</v>
       </c>
     </row>
     <row r="5">
@@ -3773,88 +3773,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1362696063918786</v>
+        <v>0.1463084144598561</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1314968081866342</v>
+        <v>0.1250726381849804</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1420453659108127</v>
+        <v>0.1190856313121474</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1693384066053751</v>
+        <v>0.1160024219455227</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2145828972732355</v>
+        <v>0.1221866095247291</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1433219027067786</v>
+        <v>0.144023526345386</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1042509152245718</v>
+        <v>0.1219687068670311</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1364937813109763</v>
+        <v>0.08325264608938904</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1308484033365103</v>
+        <v>0.0958903297491101</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1485791307042837</v>
+        <v>0.1256719965058527</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1550163399117109</v>
+        <v>0.1240686683483544</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1382193467195467</v>
+        <v>0.114629018854492</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1689568094986641</v>
+        <v>0.09650049129685831</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1886568891077476</v>
+        <v>0.1057287976345359</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1727327859450472</v>
+        <v>0.09709802870356547</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.07199109643722693</v>
+        <v>0.08554995909584784</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04092266761527784</v>
+        <v>0.1152756401007571</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01953027855056</v>
+        <v>0.103495760884325</v>
       </c>
       <c r="T5" t="n">
-        <v>0.042797128012783</v>
+        <v>0.07142343326667083</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02811154159795593</v>
+        <v>0.05995649240179989</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0441685231837536</v>
+        <v>0.04226375694881124</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02987230630346731</v>
+        <v>0.06008319430888741</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02435500993261529</v>
+        <v>0.07184311529917638</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003899951497658584</v>
+        <v>0.153549096114143</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001496128721380589</v>
+        <v>0.04220630572538477</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0001213434996196283</v>
+        <v>0.02260026165753747</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0001205899737625989</v>
+        <v>0.01500010577575812</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.96155429809481e-06</v>
+        <v>0.01092200227482606</v>
       </c>
     </row>
     <row r="6">
@@ -3864,88 +3864,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1526415350565182</v>
+        <v>0.1376637065094386</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1603168548594095</v>
+        <v>0.1707798491128642</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1432815587829532</v>
+        <v>0.180793534162663</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1194359631868284</v>
+        <v>0.1855198109021562</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08194565174182558</v>
+        <v>0.1742414791566378</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1396482222024511</v>
+        <v>0.1522705126516089</v>
       </c>
       <c r="H6" t="n">
-        <v>0.176999562901228</v>
+        <v>0.1737976258871326</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1461013116202552</v>
+        <v>0.2115632934817717</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09826955190262401</v>
+        <v>0.1944777188048108</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1889507307867263</v>
+        <v>0.1655692643423835</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1490052911870695</v>
+        <v>0.1946961140116278</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2020878994235743</v>
+        <v>0.2295068193176344</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1827409781223941</v>
+        <v>0.2656547436942542</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1891820565345147</v>
+        <v>0.2447879721931819</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2087460394986738</v>
+        <v>0.2646812956624926</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.31226968813261</v>
+        <v>0.2876440786016073</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3474325310883364</v>
+        <v>0.2465564503148031</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3716240787817109</v>
+        <v>0.2680903769091975</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3989087152990836</v>
+        <v>0.313913656519747</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4306709281801923</v>
+        <v>0.321943836586007</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4882594264034453</v>
+        <v>0.3033634322229341</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4817088669878647</v>
+        <v>0.3352617233897553</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6194136717293582</v>
+        <v>0.3631477657253456</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6468324076659623</v>
+        <v>0.3393405429568454</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6463810744352112</v>
+        <v>0.2928173841030893</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6573753260284144</v>
+        <v>0.3055832827188381</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6521156386725508</v>
+        <v>0.3103755306443888</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7311449527180354</v>
+        <v>0.3128024273235069</v>
       </c>
     </row>
     <row r="7">
@@ -3955,88 +3955,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1412397023664597</v>
+        <v>0.1437553660165002</v>
       </c>
       <c r="C7" t="n">
-        <v>0.13955580846871</v>
+        <v>0.137169471913328</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1433575075666851</v>
+        <v>0.1347217405682123</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1258554205220409</v>
+        <v>0.1338145344794715</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09505147353678806</v>
+        <v>0.1371298125560757</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1447614562000315</v>
+        <v>0.1262340961696543</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1669955159832129</v>
+        <v>0.1377896814197917</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1487072037411701</v>
+        <v>0.1581232181195479</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2226202128272046</v>
+        <v>0.1554850800907273</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07983867794820595</v>
+        <v>0.1397284977601415</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1319550330577188</v>
+        <v>0.1047560273666853</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07162466929353582</v>
+        <v>0.06902469434288663</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0696154306865551</v>
+        <v>0.04114630659615643</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02630935685230556</v>
+        <v>0.05871365718174238</v>
       </c>
       <c r="P7" t="n">
-        <v>0.005254040509904218</v>
+        <v>0.04163272286377401</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0008611360600315376</v>
+        <v>0.02783865884931585</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0001931688754652234</v>
+        <v>0.04202591372470888</v>
       </c>
       <c r="S7" t="n">
-        <v>2.617360933181998e-05</v>
+        <v>0.02646957388030704</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0002386364598633774</v>
+        <v>0.009758668741031767</v>
       </c>
       <c r="U7" t="n">
-        <v>1.17251305623597e-05</v>
+        <v>0.004123594759841288</v>
       </c>
       <c r="V7" t="n">
-        <v>3.031543520300764e-06</v>
+        <v>0.001908319940031414</v>
       </c>
       <c r="W7" t="n">
-        <v>1.022930250479607e-06</v>
+        <v>0.0009766449751218429</v>
       </c>
       <c r="X7" t="n">
-        <v>2.324197731046205e-07</v>
+        <v>0.0001692977717683551</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.099614145957162e-08</v>
+        <v>0.0002374404578871016</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.981185869314338e-10</v>
+        <v>4.897343445692108e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.781710420776706e-11</v>
+        <v>1.946136881130119e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.151780629615331e-11</v>
+        <v>1.020703899889298e-05</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.135504545574792e-13</v>
+        <v>6.273923811028112e-06</v>
       </c>
     </row>
     <row r="8">
@@ -4046,88 +4046,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1522763428436265</v>
+        <v>0.1378702849115389</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1595841965512838</v>
+        <v>0.1695313089772908</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1433659785869336</v>
+        <v>0.1790162725992465</v>
       </c>
       <c r="E8" t="n">
-        <v>0.119704910753432</v>
+        <v>0.1835561116827807</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08238344473459368</v>
+        <v>0.1730000324881008</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1399250303719835</v>
+        <v>0.151440332300032</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1767979338031535</v>
+        <v>0.1726002056110447</v>
       </c>
       <c r="I8" t="n">
-        <v>0.146295568061723</v>
+        <v>0.2097596679989944</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09864395778747173</v>
+        <v>0.1932551248205709</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1891687348789575</v>
+        <v>0.1648100283037971</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1494647522493806</v>
+        <v>0.1935651407766883</v>
       </c>
       <c r="M8" t="n">
-        <v>0.20204211228248</v>
+        <v>0.2277620912418454</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1832276494011163</v>
+        <v>0.2629443834873198</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1911488655472203</v>
+        <v>0.2425890555099591</v>
       </c>
       <c r="P8" t="n">
-        <v>0.211907162308597</v>
+        <v>0.2620288997042614</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3035040996376315</v>
+        <v>0.2827641017839812</v>
       </c>
       <c r="R8" t="n">
-        <v>0.333591969529531</v>
+        <v>0.2459509071679777</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3551000523025653</v>
+        <v>0.266521966174628</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3127920514968887</v>
+        <v>0.3080451989069135</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3264758709271113</v>
+        <v>0.3195635090501909</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2856061571264326</v>
+        <v>0.3461063668073387</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3086976931369135</v>
+        <v>0.3204523414681392</v>
       </c>
       <c r="X8" t="n">
-        <v>0.254251547364582</v>
+        <v>0.3034617838911293</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.246471263344047</v>
+        <v>0.2144196213481659</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2575137691286757</v>
+        <v>0.3678316925650241</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2177656873329326</v>
+        <v>0.3713301479915703</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2405354057269808</v>
+        <v>0.3717760190081956</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1740535292610661</v>
+        <v>0.3707219734884724</v>
       </c>
     </row>
   </sheetData>
@@ -4242,88 +4242,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1453163347879265</v>
+        <v>0.1458176762395287</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1436355215859741</v>
+        <v>0.1443669992327211</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1440021724924303</v>
+        <v>0.1442931825891828</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1703562236727303</v>
+        <v>0.1418566987828291</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1769956627377994</v>
+        <v>0.1450810107551488</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1783132361229835</v>
+        <v>0.159054890249565</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1846896692186127</v>
+        <v>0.1682206968632762</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1010785903495905</v>
+        <v>0.1446690199140809</v>
       </c>
       <c r="J2" t="n">
-        <v>0.103283981055822</v>
+        <v>0.1160617304031897</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1099382287101648</v>
+        <v>0.1036376730582662</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1216014780961863</v>
+        <v>0.09568599543184655</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0960773925694814</v>
+        <v>0.1068569809313883</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1050558569260161</v>
+        <v>0.09681174280517937</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07326232899426892</v>
+        <v>0.1065451342906958</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03413212144160137</v>
+        <v>0.0959132546044017</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07088383250786699</v>
+        <v>0.1194548434632289</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05068053290169842</v>
+        <v>0.1293257526096947</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01774606301817937</v>
+        <v>0.1610166647136221</v>
       </c>
       <c r="T2" t="n">
-        <v>0.009912642523699266</v>
+        <v>0.1104576328958434</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004795178298736513</v>
+        <v>0.1076876921815974</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002822757211477434</v>
+        <v>0.1675193831418023</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001518295098477755</v>
+        <v>0.2109383457437908</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0006107626025148984</v>
+        <v>0.2546018903787196</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0001049161501139084</v>
+        <v>0.231531866023618</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.379907747437649e-05</v>
+        <v>0.2090608852420869</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.068235235620327e-05</v>
+        <v>0.1250936853559309</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.910922792786091e-06</v>
+        <v>0.065024242533093</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.406676630978081e-10</v>
+        <v>0.01799046174503652</v>
       </c>
     </row>
     <row r="3">
@@ -4333,88 +4333,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1345467591613349</v>
+        <v>0.133541544928646</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1422972460538015</v>
+        <v>0.1394210823506024</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1430529658477564</v>
+        <v>0.1406146003236832</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09593307885694254</v>
+        <v>0.1485979140483122</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09449239811627519</v>
+        <v>0.139121191756271</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09965852856613346</v>
+        <v>0.1135538444857674</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1019427193777727</v>
+        <v>0.09497914211135025</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2287266815921412</v>
+        <v>0.1388160416334631</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2978256631192785</v>
+        <v>0.1839920449766773</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116744315536386</v>
+        <v>0.2025334177782646</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2913635885447444</v>
+        <v>0.2791999422292205</v>
       </c>
       <c r="M3" t="n">
-        <v>0.393880720764879</v>
+        <v>0.2032464397706536</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3669751216800443</v>
+        <v>0.2996187993490215</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4654243309964532</v>
+        <v>0.3150206612344313</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5984757564863062</v>
+        <v>0.3919303759232416</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4794235133657553</v>
+        <v>0.288687504553181</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5173420848013983</v>
+        <v>0.2071009403388273</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5935458943817895</v>
+        <v>0.1252394379111633</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6352295489021765</v>
+        <v>0.372769284659026</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6422482143577254</v>
+        <v>0.3732646203166317</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6333923797068266</v>
+        <v>0.2121618296431993</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6078912277123072</v>
+        <v>0.1518084361351773</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6163876056681127</v>
+        <v>0.07645061687162745</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6431039408525696</v>
+        <v>0.1392578839508108</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6673995244446314</v>
+        <v>0.2510489240694657</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.6424770656670717</v>
+        <v>0.3642996647000405</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.665099107586409</v>
+        <v>0.4448648233169842</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6872366561633114</v>
+        <v>0.4995930189059507</v>
       </c>
     </row>
     <row r="4">
@@ -4424,88 +4424,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1345467469622835</v>
+        <v>0.1335415306247969</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1422972434449971</v>
+        <v>0.1394210758215682</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1430529626007215</v>
+        <v>0.1406145947012007</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09593358243998371</v>
+        <v>0.1485979202490946</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09449317403347687</v>
+        <v>0.1391211830875106</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09965959527519215</v>
+        <v>0.1135541307526227</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1019442356777742</v>
+        <v>0.0949795810042606</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2287286702715271</v>
+        <v>0.1388160457851062</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1568296729166617</v>
+        <v>0.183991129196431</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1205014555127748</v>
+        <v>0.2025320062956881</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1001074236268098</v>
+        <v>0.1633957765949894</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04836828165123197</v>
+        <v>0.1976150900721697</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03505434904446762</v>
+        <v>0.1470051927272599</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01954396775127851</v>
+        <v>0.1176065945952619</v>
       </c>
       <c r="P4" t="n">
-        <v>0.006409876545352095</v>
+        <v>0.06855283943450799</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01536150365390557</v>
+        <v>0.1051626742271771</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00523593355563327</v>
+        <v>0.1477044002611689</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0002156780331946488</v>
+        <v>0.1675362613421571</v>
       </c>
       <c r="T4" t="n">
-        <v>8.680301439093021e-05</v>
+        <v>0.03879414875222596</v>
       </c>
       <c r="U4" t="n">
-        <v>1.706441586060852e-05</v>
+        <v>0.02353972417817935</v>
       </c>
       <c r="V4" t="n">
-        <v>4.098073221989604e-06</v>
+        <v>0.04780760615611594</v>
       </c>
       <c r="W4" t="n">
-        <v>5.433527415873603e-07</v>
+        <v>0.02993021579954261</v>
       </c>
       <c r="X4" t="n">
-        <v>7.252658159824389e-08</v>
+        <v>0.01477782118207351</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.369204924990472e-09</v>
+        <v>0.008523453154907393</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.119492542667502e-10</v>
+        <v>0.0006787758106970306</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.792554256457619e-11</v>
+        <v>0.0002027135196600327</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.559369507362304e-12</v>
+        <v>3.848307049725307e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.030861241760236e-14</v>
+        <v>2.344004669255913e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4515,88 +4515,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1345421547332676</v>
+        <v>0.1335361459970271</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1422962612086789</v>
+        <v>0.1394186178707244</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1430517399362406</v>
+        <v>0.1406124779276037</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09592391983330432</v>
+        <v>0.1486002542351447</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09447876267439705</v>
+        <v>0.1391179195079183</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09964005299537207</v>
+        <v>0.1135463381499329</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1019168125771165</v>
+        <v>0.09496957598531301</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2286918464436752</v>
+        <v>0.1388125652891844</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2357677184544109</v>
+        <v>0.184002624952208</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2524921484659687</v>
+        <v>0.2025517147688726</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2807170557025131</v>
+        <v>0.1877506895118141</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2245800205838562</v>
+        <v>0.2089439836459294</v>
       </c>
       <c r="N5" t="n">
-        <v>0.24719105875822</v>
+        <v>0.1903608717279702</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1714941948523548</v>
+        <v>0.2104524484283398</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07923080364528681</v>
+        <v>0.1914941002318831</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.165712498783219</v>
+        <v>0.2396845844736807</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1167821982978438</v>
+        <v>0.2608004223470944</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0395542826739372</v>
+        <v>0.3256688537758471</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02082495547508863</v>
+        <v>0.2177572536849459</v>
       </c>
       <c r="U5" t="n">
-        <v>0.008652902944526166</v>
+        <v>0.2104017989084399</v>
       </c>
       <c r="V5" t="n">
-        <v>0.004421795299935923</v>
+        <v>0.3692780600953373</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001878366248975857</v>
+        <v>0.4233598752112503</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0006350767693875618</v>
+        <v>0.5456915041653082</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.165033097460932e-05</v>
+        <v>0.4601223373491879</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.949709160877861e-05</v>
+        <v>0.2442090322226774</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.261021054901423e-06</v>
+        <v>0.1285493598116481</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.264657718956162e-06</v>
+        <v>0.05647900079155843</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.164628792572037e-12</v>
+        <v>0.01166009043074816</v>
       </c>
     </row>
     <row r="6">
@@ -4606,88 +4606,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1554993266598535</v>
+        <v>0.1568095221268623</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1430574651343959</v>
+        <v>0.1475570343698056</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1412784764861789</v>
+        <v>0.1454424100330516</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1849805711767571</v>
+        <v>0.1333696241740352</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1807097183373526</v>
+        <v>0.147356233563373</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1719456369512211</v>
+        <v>0.1715442224608796</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1626257248597463</v>
+        <v>0.1900595593119467</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05764813738889484</v>
+        <v>0.1482022344319907</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03747691731998342</v>
+        <v>0.1091650600536622</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02741706746824175</v>
+        <v>0.09378322121818315</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02181849738286441</v>
+        <v>0.07457556991897321</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00994459580966269</v>
+        <v>0.09037985198200785</v>
       </c>
       <c r="N6" t="n">
-        <v>0.006743491165620005</v>
+        <v>0.06578329929616626</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003549423568862898</v>
+        <v>0.0495853687025738</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001067952440119716</v>
+        <v>0.02743389042349393</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002438374216601028</v>
+        <v>0.04408661001740659</v>
       </c>
       <c r="R6" t="n">
-        <v>0.000673862768654464</v>
+        <v>0.0673883678265739</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33379499351938e-05</v>
+        <v>0.06780735848798058</v>
       </c>
       <c r="T6" t="n">
-        <v>5.86216640547361e-06</v>
+        <v>0.01255193998189241</v>
       </c>
       <c r="U6" t="n">
-        <v>1.480257919999893e-06</v>
+        <v>0.006610250759470155</v>
       </c>
       <c r="V6" t="n">
-        <v>4.62443119214891e-07</v>
+        <v>0.01458430693690213</v>
       </c>
       <c r="W6" t="n">
-        <v>8.961446455320062e-08</v>
+        <v>0.01138675663796915</v>
       </c>
       <c r="X6" t="n">
-        <v>1.658859925613149e-08</v>
+        <v>0.01092785315229466</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.882178794052137e-10</v>
+        <v>0.007191438382755629</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.460108819861371e-10</v>
+        <v>0.0007755873233431668</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.418352707029553e-12</v>
+        <v>0.0002351901417726899</v>
       </c>
       <c r="AB6" t="n">
-        <v>4.008723239342462e-13</v>
+        <v>4.575112828965849e-05</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.508095448584284e-15</v>
+        <v>2.877964427365906e-06</v>
       </c>
     </row>
     <row r="7">
@@ -4697,88 +4697,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1405623195656747</v>
+        <v>0.1404844661116998</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1432841067988772</v>
+        <v>0.1423841180449368</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1440586587684976</v>
+        <v>0.1429839272104001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.172133098966902</v>
+        <v>0.145134480271037</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1779699320244967</v>
+        <v>0.1428757937252955</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1783848902220005</v>
+        <v>0.1575396455615266</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1833423187933108</v>
+        <v>0.1673637770292294</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09638665862251948</v>
+        <v>0.1425587710818912</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1304821429543035</v>
+        <v>0.113412358729425</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1498318939702135</v>
+        <v>0.1008928884354317</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1619240053969581</v>
+        <v>0.1245120829404809</v>
       </c>
       <c r="M7" t="n">
-        <v>0.216865488747147</v>
+        <v>0.1022171183258394</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2319727168276549</v>
+        <v>0.1342713233705067</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2630070139840798</v>
+        <v>0.1507064827623153</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2795508658560669</v>
+        <v>0.1968623524363395</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2635687716459298</v>
+        <v>0.1585074137395454</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3085417500806155</v>
+        <v>0.1206391390967356</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3489083854488687</v>
+        <v>0.08392631057345014</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3339334125609262</v>
+        <v>0.2345497008718819</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3442837145014906</v>
+        <v>0.2714433373770382</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3593581286864895</v>
+        <v>0.1736290425317986</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3887114212640339</v>
+        <v>0.1624566874779322</v>
       </c>
       <c r="X7" t="n">
-        <v>0.3823664574062382</v>
+        <v>0.09109705416698152</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3567094881014971</v>
+        <v>0.1494840233862052</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3325271785518067</v>
+        <v>0.2938959804845536</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3575079909348038</v>
+        <v>0.3815179885447212</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3348957168308976</v>
+        <v>0.4335276347695283</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3127633434888423</v>
+        <v>0.4707499159640822</v>
       </c>
     </row>
     <row r="8">
@@ -4788,88 +4788,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1549863581296593</v>
+        <v>0.1562691139714392</v>
       </c>
       <c r="C8" t="n">
-        <v>0.143132155773275</v>
+        <v>0.1474310723096417</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1415030238681746</v>
+        <v>0.1454388072148779</v>
       </c>
       <c r="E8" t="n">
-        <v>0.18473952505338</v>
+        <v>0.1338431082395474</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1808603520762022</v>
+        <v>0.1473266676044829</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1723980598670971</v>
+        <v>0.1712069283397058</v>
       </c>
       <c r="H8" t="n">
-        <v>0.163538519495667</v>
+        <v>0.1894276676946237</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05873941533165191</v>
+        <v>0.1481253218642836</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03833390417953999</v>
+        <v>0.1093750516884069</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02814477431899802</v>
+        <v>0.09406907844529365</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02246795124992394</v>
+        <v>0.07487994337267519</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01028349987374171</v>
+        <v>0.0907405352720117</v>
       </c>
       <c r="N8" t="n">
-        <v>0.007007405597976943</v>
+        <v>0.06614877072389617</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003718739852701922</v>
+        <v>0.05008330998638218</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001132623585266932</v>
+        <v>0.02781318694613221</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002611505826722573</v>
+        <v>0.04441636952578035</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0007436375941562068</v>
+        <v>0.06704097751990509</v>
       </c>
       <c r="S8" t="n">
-        <v>1.6358494095254e-05</v>
+        <v>0.06880511319577944</v>
       </c>
       <c r="T8" t="n">
-        <v>6.775357312916064e-06</v>
+        <v>0.01312003915418434</v>
       </c>
       <c r="U8" t="n">
-        <v>1.44522374084686e-06</v>
+        <v>0.007052576278643327</v>
       </c>
       <c r="V8" t="n">
-        <v>3.785789293147333e-07</v>
+        <v>0.01501977149484444</v>
       </c>
       <c r="W8" t="n">
-        <v>5.670899893622415e-08</v>
+        <v>0.01011968299433776</v>
       </c>
       <c r="X8" t="n">
-        <v>8.438565764649574e-09</v>
+        <v>0.00645326008299514</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.074219443378168e-10</v>
+        <v>0.003888997752515125</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.651860974902604e-11</v>
+        <v>0.0003308148471762802</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.369258968706046e-12</v>
+        <v>0.000101397926226563</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.21309562748832e-13</v>
+        <v>2.006439004905934e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.325671255870402e-15</v>
+        <v>1.290985085912322e-06</v>
       </c>
     </row>
   </sheetData>
@@ -4984,88 +4984,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.140353510858965</v>
+        <v>0.146698871624449</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1390059209646838</v>
+        <v>0.1450217952948803</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1413891883887258</v>
+        <v>0.143289601438263</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1620187628074012</v>
+        <v>0.1416141493365368</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1729902033194942</v>
+        <v>0.1429647529712902</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1928933996552582</v>
+        <v>0.1587567225893374</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1928746271919498</v>
+        <v>0.1752935643373547</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1734542578643313</v>
+        <v>0.1789671044277593</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1977302869509892</v>
+        <v>0.1775827020194143</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2347342420686287</v>
+        <v>0.1983491786019703</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2030290387646706</v>
+        <v>0.2175505440592018</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2199077672534399</v>
+        <v>0.1744283697108834</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2035549329085111</v>
+        <v>0.1448011532730064</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2303048700560718</v>
+        <v>0.09306035902516409</v>
       </c>
       <c r="P2" t="n">
-        <v>0.183246496295408</v>
+        <v>0.08482720626675269</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07535467380002003</v>
+        <v>0.06644604229619623</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06340926484505489</v>
+        <v>0.04924297226280291</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0938796137105794</v>
+        <v>0.08423735053677536</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08254375429265896</v>
+        <v>0.01433398677459499</v>
       </c>
       <c r="U2" t="n">
-        <v>0.008606333749163137</v>
+        <v>0.00916876527951202</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005229295506538592</v>
+        <v>0.00254625557239471</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02216943270060909</v>
+        <v>0.003074699113375245</v>
       </c>
       <c r="X2" t="n">
-        <v>0.005873177769163682</v>
+        <v>0.001956915048321759</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002079333333419902</v>
+        <v>0.001141122767522487</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.649293205750947e-08</v>
+        <v>0.000515864913663698</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.177264092324175e-09</v>
+        <v>0.0001657084602618532</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.39265022657928e-10</v>
+        <v>7.656210308637795e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.799896972530679e-11</v>
+        <v>4.515383972788958e-05</v>
       </c>
     </row>
     <row r="3">
@@ -5075,88 +5075,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1506859722665359</v>
+        <v>0.125794380278317</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1555132384914087</v>
+        <v>0.1339825263120172</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1483341163793432</v>
+        <v>0.1407514921588341</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1136884191236345</v>
+        <v>0.1468721748457904</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1078014941597259</v>
+        <v>0.1415482199605413</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06568582903381109</v>
+        <v>0.1125599698924191</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05328611966508125</v>
+        <v>0.07195054619264576</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09813070554693686</v>
+        <v>0.04988508016444872</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01723671033978917</v>
+        <v>0.07002077132944348</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01335426425855269</v>
+        <v>0.03433282295334408</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007257394443567206</v>
+        <v>0.01826396822716927</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01338222916260464</v>
+        <v>0.006900274294406054</v>
       </c>
       <c r="N3" t="n">
-        <v>0.006241391791747245</v>
+        <v>0.002486552004319411</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002014362153023824</v>
+        <v>0.0004434991908970161</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0006098284865647942</v>
+        <v>0.0002715951821110248</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.149300954028382e-07</v>
+        <v>0.0001453906944610439</v>
       </c>
       <c r="R3" t="n">
-        <v>1.217676023561364e-07</v>
+        <v>6.826013646737139e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>4.980099060497496e-07</v>
+        <v>0.0001768497728537205</v>
       </c>
       <c r="T3" t="n">
-        <v>9.197840344051481e-08</v>
+        <v>9.722254717670983e-06</v>
       </c>
       <c r="U3" t="n">
-        <v>2.437287374125793e-09</v>
+        <v>3.876184377854729e-06</v>
       </c>
       <c r="V3" t="n">
-        <v>4.477740807237107e-10</v>
+        <v>5.447129989781862e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>6.846399257065682e-10</v>
+        <v>9.544369470049239e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>7.899917103870527e-11</v>
+        <v>3.630538869247355e-08</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.905963021439301e-11</v>
+        <v>1.401788791247745e-08</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.18829679528784e-14</v>
+        <v>3.930183285593041e-09</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.677880641008791e-15</v>
+        <v>8.438205068377116e-10</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.50116769833587e-17</v>
+        <v>2.880485796758123e-10</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.229255299172317e-18</v>
+        <v>1.422048340325641e-10</v>
       </c>
     </row>
     <row r="4">
@@ -5166,88 +5166,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1506859844279431</v>
+        <v>0.1257943585095082</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1555132573446338</v>
+        <v>0.1339825146210287</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1483341238674208</v>
+        <v>0.1407514897559574</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1136888558118363</v>
+        <v>0.1468721810948206</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1078023596398655</v>
+        <v>0.1415482189094759</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06568668095067201</v>
+        <v>0.1125602963901129</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05328686607037843</v>
+        <v>0.07195105370003323</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09813149870175079</v>
+        <v>0.04988556657965934</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1307166747231404</v>
+        <v>0.07002151377926182</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1235612202326919</v>
+        <v>0.03433348353385968</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1383764807225711</v>
+        <v>0.03876783225042161</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1280133342875263</v>
+        <v>0.04588019750164982</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1414361360345328</v>
+        <v>0.04971537434660136</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1448726046710633</v>
+        <v>0.05319435090996237</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1623054815566942</v>
+        <v>0.0537623933998053</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1838196380183069</v>
+        <v>0.05209553621516332</v>
       </c>
       <c r="R4" t="n">
-        <v>0.183420680775312</v>
+        <v>0.04983136649400183</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1861903876846235</v>
+        <v>0.05285424638634707</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1678902205201773</v>
+        <v>0.04471006204945401</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2147248105522515</v>
+        <v>0.04044547639265435</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1782386708641167</v>
+        <v>0.05258747417502989</v>
       </c>
       <c r="W4" t="n">
-        <v>0.115182444170273</v>
+        <v>0.04486592251257633</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1006639413307973</v>
+        <v>0.04944524413035425</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1081261334094381</v>
+        <v>0.05892950898065067</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1060538937858845</v>
+        <v>0.07692933948557487</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.09503921655730753</v>
+        <v>0.08342245608297819</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1143062136346011</v>
+        <v>0.08752475996856018</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.05335426686928122</v>
+        <v>0.09084549600904812</v>
       </c>
     </row>
     <row r="5">
@@ -5257,88 +5257,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1506905625682889</v>
+        <v>0.1257861641126853</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1555203544982925</v>
+        <v>0.1339781137762345</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1483369426188968</v>
+        <v>0.1407505852985945</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1136834812238483</v>
+        <v>0.1468745335505531</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1077893707018454</v>
+        <v>0.1415478233371429</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06567309260461285</v>
+        <v>0.1125542586442664</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0532748760525947</v>
+        <v>0.0719419703020019</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09811958178574133</v>
+        <v>0.04987691669822684</v>
       </c>
       <c r="J5" t="n">
-        <v>0.111054246130761</v>
+        <v>0.07000832775446375</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1321781277427459</v>
+        <v>0.03432183459882886</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1135882812462532</v>
+        <v>0.0374926867615345</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1236136002115505</v>
+        <v>0.02974567598065677</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1135617347097721</v>
+        <v>0.02445888179461018</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1287620076506658</v>
+        <v>0.01543901378998909</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1035074375217014</v>
+        <v>0.01401586937187587</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04405865757599076</v>
+        <v>0.01102612636481889</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0372268371265528</v>
+        <v>0.008214060316819748</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05462904375150478</v>
+        <v>0.01390041384585983</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05687308886423917</v>
+        <v>0.002448269121203803</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01141623572934534</v>
+        <v>0.00157602121366596</v>
       </c>
       <c r="V5" t="n">
-        <v>0.008813688241631482</v>
+        <v>0.0005331515629799099</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03636101140736125</v>
+        <v>0.0007104281188784789</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01218721211929602</v>
+        <v>0.0004908407974091887</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.004776292709696404</v>
+        <v>0.0003091133711247609</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.291754256829778e-06</v>
+        <v>0.0001542693618102878</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.156440340909376e-06</v>
+        <v>5.521349628639889e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.765486481669744e-08</v>
+        <v>2.764492654129376e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.872676151541911e-09</v>
+        <v>1.713333929062836e-05</v>
       </c>
     </row>
     <row r="6">
@@ -5348,88 +5348,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1311540983208403</v>
+        <v>0.1700823076087045</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1237148686033728</v>
+        <v>0.1568477377030771</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1343562990392054</v>
+        <v>0.1462713519709408</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1650171413962835</v>
+        <v>0.1368198964534584</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1630342256943325</v>
+        <v>0.1451491853276183</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2051828505941586</v>
+        <v>0.1725513008972293</v>
       </c>
       <c r="H6" t="n">
-        <v>0.223398188426367</v>
+        <v>0.2163315235592563</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1767165430831784</v>
+        <v>0.2453513725604611</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2372477594670976</v>
+        <v>0.2170320829217289</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2156070911387666</v>
+        <v>0.2492147631967129</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2494896624358235</v>
+        <v>0.2783187422059698</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2270129139935917</v>
+        <v>0.3437372870988447</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2508068026518839</v>
+        <v>0.3783754141923759</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2383997024807699</v>
+        <v>0.4185783622038101</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2707457546597122</v>
+        <v>0.4241728081924764</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3485524331615413</v>
+        <v>0.4387365597873285</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3588051345323462</v>
+        <v>0.4530750709540488</v>
       </c>
       <c r="S6" t="n">
-        <v>0.331168537041445</v>
+        <v>0.4262071835020276</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3668621506316134</v>
+        <v>0.4810744936392394</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3662704956349934</v>
+        <v>0.490697427338466</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4248976970727551</v>
+        <v>0.4154494891746191</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5301233156936636</v>
+        <v>0.4580145620035502</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5673524287878502</v>
+        <v>0.4303239572550496</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5771206221423115</v>
+        <v>0.3848845885277185</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5798435147179603</v>
+        <v>0.3158748990592137</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5725707475371385</v>
+        <v>0.3222822592713415</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6120746197208281</v>
+        <v>0.3260219559328354</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5520134839751725</v>
+        <v>0.328844907280406</v>
       </c>
     </row>
     <row r="7">
@@ -5439,88 +5439,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1448214369221073</v>
+        <v>0.137038423937984</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1462543466256413</v>
+        <v>0.139969748691942</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1445300984624733</v>
+        <v>0.1420736063757184</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1667632896934591</v>
+        <v>0.1438825355954454</v>
       </c>
       <c r="F7" t="n">
-        <v>0.176983031374768</v>
+        <v>0.1422216395605627</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1996953491549169</v>
+        <v>0.1589650518054843</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2011166173691711</v>
+        <v>0.1776406973374438</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1785896400286267</v>
+        <v>0.1831096302927731</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06869790407053419</v>
+        <v>0.179719901112144</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06427271277120111</v>
+        <v>0.2018368776288212</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03856863031724144</v>
+        <v>0.1328352048131991</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06060648335572123</v>
+        <v>0.05851456257720278</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03304272278690651</v>
+        <v>0.02540158960506771</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01396275672851669</v>
+        <v>0.005613257733840657</v>
       </c>
       <c r="P7" t="n">
-        <v>0.004847153193145761</v>
+        <v>0.003790112408057583</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.145622640316497e-06</v>
+        <v>0.002151027456317366</v>
       </c>
       <c r="R7" t="n">
-        <v>4.306554076274866e-06</v>
+        <v>0.001082083026107777</v>
       </c>
       <c r="S7" t="n">
-        <v>1.47829990075449e-05</v>
+        <v>0.003090403996912461</v>
       </c>
       <c r="T7" t="n">
-        <v>3.110214245252411e-06</v>
+        <v>0.0001671218495834862</v>
       </c>
       <c r="U7" t="n">
-        <v>7.538319258112102e-08</v>
+        <v>7.092237576005154e-05</v>
       </c>
       <c r="V7" t="n">
-        <v>1.526295149222204e-08</v>
+        <v>1.044438186359733e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>2.631144733928565e-08</v>
+        <v>2.127416691544915e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>3.230160965403908e-09</v>
+        <v>8.562300966972766e-07</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.041651022949877e-10</v>
+        <v>3.444874963368239e-07</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.86132579744598e-13</v>
+        <v>1.009400735307717e-07</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.106159150765352e-14</v>
+        <v>2.23925014255159e-08</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.863238760532135e-15</v>
+        <v>7.833468739148882e-09</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.13063060173565e-17</v>
+        <v>3.921269904581778e-09</v>
       </c>
     </row>
     <row r="8">
@@ -5530,88 +5530,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1316084346353195</v>
+        <v>0.1688054939283521</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1244780134719671</v>
+        <v>0.1562175636008204</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1347192312439349</v>
+        <v>0.1461118730016918</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1651400499435369</v>
+        <v>0.1370645291233953</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1635993151099685</v>
+        <v>0.1450201599333688</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2051827980065705</v>
+        <v>0.1720523997811507</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2227627052244578</v>
+        <v>0.2148906445712643</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1768577729894346</v>
+        <v>0.2429243292766718</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2373164183176885</v>
+        <v>0.215614701083544</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2162923417874132</v>
+        <v>0.247611039486463</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2496905120698729</v>
+        <v>0.2767710216825039</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2274636717355656</v>
+        <v>0.3407936328363565</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2513562791166463</v>
+        <v>0.3747610347840191</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2416836962598887</v>
+        <v>0.4136711571463367</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2747378482867736</v>
+        <v>0.4191600151789211</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3482072368914053</v>
+        <v>0.4293993171857147</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3571336543990555</v>
+        <v>0.4384861868097515</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3341171368029337</v>
+        <v>0.4195335519592238</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3258275834986625</v>
+        <v>0.4572563443112067</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3989820465137667</v>
+        <v>0.4580375112155637</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3828206326042325</v>
+        <v>0.5288726404201139</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2961637690320058</v>
+        <v>0.4933321653912335</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3139232366837328</v>
+        <v>0.5177821502333799</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3078976175819092</v>
+        <v>0.5547353078475992</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.3140962632486685</v>
+        <v>0.6065255223094806</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3323888732879062</v>
+        <v>0.5940743394528101</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2736190986504389</v>
+        <v>0.5863490689474592</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3946322452648711</v>
+        <v>0.5802473054680527</v>
       </c>
     </row>
   </sheetData>
